--- a/Uploads/hdfc cc goa.xlsx
+++ b/Uploads/hdfc cc goa.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="270" windowWidth="14940" windowHeight="9150"/>
+    <workbookView xWindow="360" yWindow="330" windowWidth="14940" windowHeight="9090"/>
   </bookViews>
   <sheets>
-    <sheet name="OpTransactionHistoryUX3" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -32,7 +32,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -46,10 +46,6 @@
     <font>
       <sz val="10"/>
       <color indexed="72"/>
-      <name val="SansSerif"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="SansSerif"/>
     </font>
     <font>
@@ -127,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -138,24 +134,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,20 +448,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="16" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="0.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.1" customHeight="1">
+    <row r="1" spans="1:4" ht="25.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,299 +467,276 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:4" ht="23.1" customHeight="1">
-      <c r="A2" s="9">
-        <v>44257</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="7">
+    </row>
+    <row r="2" spans="1:4" ht="25.5">
+      <c r="A2" s="8">
+        <v>44256</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5">
         <v>40050</v>
       </c>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" ht="23.1" customHeight="1">
-      <c r="A3" s="9">
-        <v>44257</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="7">
+      <c r="D2" s="7">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="25.5">
+      <c r="A3" s="8">
+        <v>44256</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5">
         <v>16875</v>
       </c>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" ht="12" customHeight="1">
-      <c r="A4" s="9">
-        <v>44257</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="7">
+    </row>
+    <row r="4" spans="1:4" ht="25.5">
+      <c r="A4" s="8">
+        <v>44256</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5">
         <v>39780</v>
       </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" ht="23.1" customHeight="1">
-      <c r="A5" s="9">
-        <v>44257</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7">
+    </row>
+    <row r="5" spans="1:4" ht="25.5">
+      <c r="A5" s="8">
+        <v>44256</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5">
         <v>21250</v>
       </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" ht="23.1" customHeight="1">
-      <c r="A6" s="9">
-        <v>44257</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="7">
+    </row>
+    <row r="6" spans="1:4" ht="25.5">
+      <c r="A6" s="8">
+        <v>44256</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5">
         <v>100000</v>
       </c>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" ht="12" customHeight="1">
-      <c r="A7" s="9">
-        <v>44257</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="7">
+    </row>
+    <row r="7" spans="1:4" ht="25.5">
+      <c r="A7" s="8">
+        <v>44256</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5">
         <v>36375</v>
       </c>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" ht="23.1" customHeight="1">
-      <c r="A8" s="9">
-        <v>44257</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="7">
+    </row>
+    <row r="8" spans="1:4" ht="25.5">
+      <c r="A8" s="8">
+        <v>44256</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5">
         <v>100000</v>
       </c>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" ht="23.1" customHeight="1">
-      <c r="A9" s="9">
-        <v>44257</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="7">
+    </row>
+    <row r="9" spans="1:4" ht="25.5">
+      <c r="A9" s="8">
+        <v>44256</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="5">
         <v>10000</v>
       </c>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" ht="12" customHeight="1">
-      <c r="A10" s="9">
-        <v>44257</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="7">
+    </row>
+    <row r="10" spans="1:4" ht="25.5">
+      <c r="A10" s="8">
+        <v>44256</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="5">
         <v>125000</v>
       </c>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" ht="23.1" customHeight="1">
-      <c r="A11" s="9">
-        <v>44257</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="7">
+    </row>
+    <row r="11" spans="1:4" ht="25.5">
+      <c r="A11" s="8">
+        <v>44256</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="5">
         <v>24375</v>
       </c>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" ht="33.950000000000003" customHeight="1">
-      <c r="A12" s="9">
-        <v>44257</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="7">
+    </row>
+    <row r="12" spans="1:4" ht="25.5">
+      <c r="A12" s="8">
+        <v>44256</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="5">
         <v>32062</v>
       </c>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" ht="23.1" customHeight="1">
-      <c r="A13" s="9">
-        <v>44257</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="7">
+    </row>
+    <row r="13" spans="1:4" ht="25.5">
+      <c r="A13" s="8">
+        <v>44256</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="5">
         <v>32700</v>
       </c>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" ht="23.1" customHeight="1">
-      <c r="A14" s="9">
-        <v>44256</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="7">
+    </row>
+    <row r="14" spans="1:4" ht="25.5">
+      <c r="A14" s="8">
+        <v>44256</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="5">
         <v>40000</v>
       </c>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" ht="23.1" customHeight="1">
-      <c r="A15" s="9">
-        <v>44256</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="7">
+    </row>
+    <row r="15" spans="1:4" ht="25.5">
+      <c r="A15" s="8">
+        <v>44256</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="5">
         <v>17500</v>
       </c>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" ht="23.1" customHeight="1">
-      <c r="A16" s="9">
-        <v>44256</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="7">
+    </row>
+    <row r="16" spans="1:4" ht="25.5">
+      <c r="A16" s="8">
+        <v>44256</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="5">
         <v>10000</v>
       </c>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" ht="23.1" customHeight="1">
-      <c r="A17" s="9">
-        <v>44256</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="7">
+    </row>
+    <row r="17" spans="1:3" ht="25.5">
+      <c r="A17" s="8">
+        <v>44256</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="5">
         <v>343406</v>
       </c>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" ht="23.1" customHeight="1">
-      <c r="A18" s="9">
-        <v>44256</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
+    </row>
+    <row r="18" spans="1:3" ht="25.5">
+      <c r="A18" s="8">
+        <v>44256</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="5">
         <v>34875</v>
       </c>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" ht="23.1" customHeight="1">
-      <c r="A19" s="9">
-        <v>44256</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="7">
+    </row>
+    <row r="19" spans="1:3" ht="25.5">
+      <c r="A19" s="8">
+        <v>44256</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="5">
         <v>31875</v>
       </c>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4" ht="23.1" customHeight="1">
-      <c r="A20" s="9">
-        <v>44256</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="7">
+    </row>
+    <row r="20" spans="1:3" ht="25.5">
+      <c r="A20" s="8">
+        <v>44256</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="5">
         <v>32250</v>
       </c>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:4" ht="23.1" customHeight="1">
-      <c r="A21" s="9">
-        <v>44256</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
+    </row>
+    <row r="21" spans="1:3" ht="25.5">
+      <c r="A21" s="8">
+        <v>44256</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="5">
         <v>21250</v>
       </c>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:4" ht="23.1" customHeight="1">
-      <c r="A22" s="9">
-        <v>44256</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="7">
+    </row>
+    <row r="22" spans="1:3" ht="25.5">
+      <c r="A22" s="8">
+        <v>44256</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="5">
         <v>42500</v>
       </c>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:4" ht="23.1" customHeight="1">
-      <c r="A23" s="9">
-        <v>44256</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7">
+    </row>
+    <row r="23" spans="1:3" ht="25.5">
+      <c r="A23" s="8">
+        <v>44256</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="5">
         <v>27031</v>
       </c>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:4" ht="23.1" customHeight="1">
-      <c r="A24" s="9">
-        <v>44256</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="7">
+    </row>
+    <row r="24" spans="1:3" ht="25.5">
+      <c r="A24" s="8">
+        <v>44256</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="5">
         <v>28530</v>
       </c>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:4" ht="23.1" customHeight="1">
-      <c r="A25" s="9">
-        <v>44256</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="8">
+    </row>
+    <row r="25" spans="1:3" ht="25.5">
+      <c r="A25" s="8">
+        <v>44256</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="6">
         <v>22500</v>
       </c>
-      <c r="D25" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="0" firstPageNumber="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>